--- a/Test/MailFormTestcase.xlsx
+++ b/Test/MailFormTestcase.xlsx
@@ -442,7 +442,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +465,12 @@
       <b/>
       <sz val="10"/>
       <name val="ヒラギノ角ゴ Pro W3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -557,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -583,11 +589,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -595,6 +596,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -900,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -949,7 +958,7 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -966,7 +975,7 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
@@ -981,7 +990,7 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
@@ -996,7 +1005,7 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1011,7 +1020,7 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1026,7 +1035,7 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
@@ -1041,7 +1050,7 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
@@ -1056,7 +1065,7 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
@@ -1071,7 +1080,7 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
@@ -1086,7 +1095,7 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
@@ -1098,7 +1107,7 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="6" t="s">
         <v>19</v>
       </c>
@@ -1113,7 +1122,7 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="6" t="s">
         <v>20</v>
       </c>
@@ -1128,7 +1137,7 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="6" t="s">
         <v>21</v>
       </c>
@@ -1143,7 +1152,7 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="6" t="s">
         <v>43</v>
       </c>
@@ -1158,7 +1167,7 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="6" t="s">
         <v>44</v>
       </c>
@@ -1173,7 +1182,7 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="6" t="s">
         <v>45</v>
       </c>
@@ -1188,7 +1197,7 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="6" t="s">
         <v>46</v>
       </c>
@@ -1203,7 +1212,7 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="6" t="s">
         <v>26</v>
       </c>
@@ -1218,7 +1227,7 @@
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="8" t="s">
         <v>47</v>
       </c>
@@ -1233,7 +1242,7 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="6" t="s">
         <v>48</v>
       </c>
@@ -1248,7 +1257,7 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="10"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="6" t="s">
         <v>49</v>
       </c>
@@ -1263,7 +1272,7 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="6" t="s">
         <v>50</v>
       </c>
@@ -1278,7 +1287,7 @@
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="10"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="6" t="s">
         <v>52</v>
       </c>
@@ -1293,7 +1302,7 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="6" t="s">
         <v>51</v>
       </c>
@@ -1308,7 +1317,7 @@
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="6" t="s">
         <v>54</v>
       </c>
@@ -1323,7 +1332,7 @@
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="10"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="6" t="s">
         <v>55</v>
       </c>
@@ -1338,7 +1347,7 @@
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="10"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="6" t="s">
         <v>58</v>
       </c>
@@ -1349,32 +1358,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="14" customFormat="1" ht="65.25" customHeight="1">
-      <c r="B30" s="10"/>
-      <c r="C30" s="12" t="s">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="65.25" customHeight="1">
+      <c r="B30" s="13"/>
+      <c r="C30" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="14" customFormat="1" ht="84">
-      <c r="B31" s="10"/>
-      <c r="C31" s="12" t="s">
+    <row r="31" spans="1:5" s="15" customFormat="1" ht="84">
+      <c r="B31" s="13"/>
+      <c r="C31" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="84">
-      <c r="B32" s="10"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="8" t="s">
         <v>68</v>
       </c>
@@ -1386,7 +1395,7 @@
       </c>
     </row>
     <row r="33" spans="2:5" ht="84">
-      <c r="B33" s="10"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="8" t="s">
         <v>69</v>
       </c>
@@ -1398,7 +1407,7 @@
       </c>
     </row>
     <row r="34" spans="2:5" ht="84">
-      <c r="B34" s="11"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="8" t="s">
         <v>71</v>
       </c>
